--- a/src/main/java/com/qtpselenium/app/salesforce/testdata/Suite.xlsx
+++ b/src/main/java/com/qtpselenium/app/salesforce/testdata/Suite.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>TestCases</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>naveenv20</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://login.salesforce.com/?locale=ca</t>
   </si>
 </sst>
 </file>
@@ -165,6 +171,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -212,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,7 +256,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,7 +491,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +514,9 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
@@ -518,6 +529,9 @@
       </c>
       <c r="C3" t="s">
         <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/qtpselenium/app/salesforce/testdata/Suite.xlsx
+++ b/src/main/java/com/qtpselenium/app/salesforce/testdata/Suite.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="ObjData" sheetId="3" r:id="rId3"/>
+    <sheet name="ObjectData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>TestCases</t>
   </si>
@@ -42,12 +42,6 @@
     <t>LoginTest</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>//*[@id='password']</t>
   </si>
   <si>
@@ -66,13 +60,28 @@
     <t>Mozilla</t>
   </si>
   <si>
-    <t>naveenv20</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
     <t>https://login.salesforce.com/?locale=ca</t>
+  </si>
+  <si>
+    <t>naveen_v201985@rediffmail.com</t>
+  </si>
+  <si>
+    <t>Username_identifier</t>
+  </si>
+  <si>
+    <t>Password_identifier</t>
+  </si>
+  <si>
+    <t>greffendor8*</t>
+  </si>
+  <si>
+    <t>//*[@id='phSearchInput']</t>
+  </si>
+  <si>
+    <t>searchtxtfld_identifier</t>
   </si>
 </sst>
 </file>
@@ -221,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,11 +499,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -515,23 +527,26 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -541,10 +556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,26 +582,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
